--- a/Project Steps Template.xlsx
+++ b/Project Steps Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Title</t>
   </si>
@@ -189,6 +189,10 @@
   <si>
     <t>Save Model
 Save Params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimise_Validation_
+Data_Cleaning </t>
   </si>
   <si>
     <t>Exploratory Data Analysis - Descriptive and Visual 
@@ -299,10 +303,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -317,6 +321,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,6 +339,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -343,6 +438,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -350,119 +467,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -479,19 +483,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,31 +621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,127 +651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,8 +695,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,8 +718,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -736,6 +742,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -747,6 +762,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,30 +789,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,143 +801,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -945,22 +949,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,8 +1356,8 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.4571428571429" defaultRowHeight="15"/>
@@ -1384,257 +1379,257 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="78.75" spans="1:13">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" ht="56.25" spans="1:13">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" ht="123.75" spans="1:13">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" ht="135" spans="1:13">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" ht="146.25" spans="1:13">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" ht="112.5" spans="1:13">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="10" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" ht="202.5" spans="1:13">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" ht="45" spans="1:13">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="M9" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="14" spans="3:4">
       <c r="C14"/>
@@ -1668,51 +1663,51 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="315" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="45" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="195" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="240" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
